--- a/docs/ValueSet-BREstadoSolicitacaoMedicamento-1.0.xlsx
+++ b/docs/ValueSet-BREstadoSolicitacaoMedicamento-1.0.xlsx
@@ -48,73 +48,73 @@
     <t>Status</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-09-20T20:58:15.9226123+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Ministério da Saúde do Brasil</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[true]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>entered-in-error</t>
+  </si>
+  <si>
+    <t>Entrada com erro</t>
+  </si>
+  <si>
     <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2020-09-20T20:58:15.9226123+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Ministério da Saúde do Brasil</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[true]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Ativo</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>Completado</t>
-  </si>
-  <si>
-    <t>entered-in-error</t>
-  </si>
-  <si>
-    <t>Entrada com erro</t>
   </si>
   <si>
     <t>Pretendido</t>
@@ -431,31 +431,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>34</v>

--- a/docs/ValueSet-BREstadoSolicitacaoMedicamento-1.0.xlsx
+++ b/docs/ValueSet-BREstadoSolicitacaoMedicamento-1.0.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-BREstadoSolicitacaoMedicamento-1.0.xlsx
+++ b/docs/ValueSet-BREstadoSolicitacaoMedicamento-1.0.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-BREstadoSolicitacaoMedicamento-1.0.xlsx
+++ b/docs/ValueSet-BREstadoSolicitacaoMedicamento-1.0.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Medicationreques" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
